--- a/webui_api.xlsx
+++ b/webui_api.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20752" windowHeight="10267" activeTab="4"/>
+    <workbookView windowWidth="20752" windowHeight="10267" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Logout" sheetId="1" r:id="rId1"/>
@@ -261,7 +261,7 @@
     <t>WIFI</t>
   </si>
   <si>
-    <t>{"ACT":"SetWIFI"}</t>
+    <t>{"ACT":"SetWIFI","device":wifi0","network":"lan","mode":"ap","ssid":"openwrt"}</t>
   </si>
   <si>
     <t>设置WIFI信息</t>
@@ -616,13 +616,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
@@ -1087,7 +1087,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1138,20 +1138,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1162,18 +1156,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1816,7 +1801,7 @@
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="51" t="s">
+      <c r="J1" s="46" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="2"/>
@@ -1840,10 +1825,10 @@
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="47" t="s">
+      <c r="J2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="54"/>
+      <c r="K2" s="49"/>
       <c r="L2" s="2"/>
     </row>
     <row r="3" ht="13.85" spans="1:12">
@@ -1857,147 +1842,147 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="54"/>
+      <c r="K3" s="49"/>
       <c r="L3" s="2"/>
     </row>
     <row r="4" ht="13.85" spans="1:12">
-      <c r="A4" s="48"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
       <c r="L4" s="2"/>
     </row>
     <row r="5" ht="13.85" spans="1:12">
-      <c r="A5" s="48"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="48"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="43"/>
       <c r="L5" s="2"/>
     </row>
     <row r="6" ht="13.85" spans="1:12">
-      <c r="A6" s="48"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="48"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="43"/>
       <c r="L6" s="2"/>
     </row>
     <row r="7" ht="13.85" spans="1:12">
-      <c r="A7" s="48"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
       <c r="L7" s="2"/>
     </row>
     <row r="8" ht="13.85" spans="1:12">
-      <c r="A8" s="48"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
       <c r="L8" s="2"/>
     </row>
     <row r="9" ht="13.85" spans="1:12">
-      <c r="A9" s="48"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
       <c r="L9" s="2"/>
     </row>
     <row r="10" ht="13.85" spans="1:12">
-      <c r="A10" s="48"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
       <c r="L10" s="2"/>
     </row>
     <row r="11" ht="13.85" spans="1:12">
-      <c r="A11" s="48"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
       <c r="L11" s="2"/>
     </row>
     <row r="12" ht="13.85" spans="1:12">
-      <c r="A12" s="48"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
       <c r="L12" s="2"/>
     </row>
     <row r="13" ht="13.85" spans="1:12">
-      <c r="A13" s="48"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
       <c r="L13" s="2"/>
     </row>
     <row r="14" ht="13.85" spans="1:12">
@@ -4660,10 +4645,10 @@
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="46" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="13" t="s">
@@ -4682,7 +4667,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
-      <c r="P1" s="51" t="s">
+      <c r="P1" s="46" t="s">
         <v>4</v>
       </c>
       <c r="Q1" s="2"/>
@@ -4698,7 +4683,7 @@
       <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="41" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="2"/>
@@ -4707,14 +4692,14 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="52" t="s">
+      <c r="K2" s="47" t="s">
         <v>18</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="53" t="s">
+      <c r="P2" s="48" t="s">
         <v>19</v>
       </c>
       <c r="Q2" s="2"/>
@@ -4741,162 +4726,162 @@
       <c r="R3" s="2"/>
     </row>
     <row r="4" ht="13.85" spans="1:18">
-      <c r="A4" s="48"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
     <row r="5" ht="13.85" spans="1:18">
-      <c r="A5" s="48"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
     <row r="6" ht="13.85" spans="1:18">
-      <c r="A6" s="48"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
     <row r="7" ht="13.85" spans="1:18">
-      <c r="A7" s="48"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
     </row>
     <row r="8" ht="13.85" spans="1:18">
-      <c r="A8" s="48"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
     <row r="9" ht="13.85" spans="1:18">
-      <c r="A9" s="48"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
     </row>
     <row r="10" ht="13.85" spans="1:18">
-      <c r="A10" s="48"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
     </row>
     <row r="11" ht="13.85" spans="1:18">
-      <c r="A11" s="48"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
     </row>
@@ -8729,45 +8714,45 @@
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="38" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
     <row r="2" ht="55" customHeight="1" spans="1:16">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="39" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
@@ -8778,175 +8763,175 @@
       <c r="B3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
       <c r="N3" s="12"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
     </row>
     <row r="4" ht="13.85" spans="4:16">
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
     </row>
     <row r="5" ht="13.85" spans="1:16">
-      <c r="A5" s="48"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
     <row r="6" ht="13.85" spans="1:16">
-      <c r="A6" s="48"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
     <row r="7" ht="13.85" spans="1:16">
-      <c r="A7" s="48"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
     <row r="8" ht="13.85" spans="1:16">
-      <c r="A8" s="48"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
     <row r="9" ht="13.85" spans="1:16">
-      <c r="A9" s="48"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
     <row r="10" ht="13.85" spans="1:16">
-      <c r="A10" s="48"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
     <row r="11" ht="13.85" spans="1:16">
-      <c r="A11" s="48"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
     <row r="12" ht="13.85" spans="1:16">
-      <c r="A12" s="48"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -8957,14 +8942,14 @@
       <c r="P12" s="2"/>
     </row>
     <row r="13" ht="13.85" spans="1:16">
-      <c r="A13" s="48"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -12353,10 +12338,10 @@
   </sheetPr>
   <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -12399,7 +12384,7 @@
       <c r="G1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="31" t="s">
         <v>28</v>
       </c>
       <c r="I1" s="9"/>
@@ -12407,10 +12392,10 @@
       <c r="K1" s="14"/>
       <c r="L1" s="14"/>
       <c r="M1" s="14"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
     </row>
     <row r="2" ht="55" customHeight="1" spans="1:17">
       <c r="A2" s="13" t="s">
@@ -12419,27 +12404,27 @@
       <c r="B2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="39"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="34"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="25"/>
+      <c r="Q2" s="23"/>
     </row>
     <row r="3" ht="41.65" spans="1:17">
       <c r="A3" s="13" t="s">
@@ -12448,404 +12433,404 @@
       <c r="B3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="39"/>
+      <c r="J3" s="34"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
-      <c r="Q3" s="25"/>
+      <c r="Q3" s="23"/>
     </row>
     <row r="4" ht="13.85" spans="14:17">
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
-      <c r="Q4" s="25"/>
+      <c r="Q4" s="23"/>
     </row>
     <row r="5" ht="13.85" spans="14:17">
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
-      <c r="Q5" s="25"/>
+      <c r="Q5" s="23"/>
     </row>
     <row r="6" ht="13.85" spans="14:17">
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
-      <c r="Q6" s="25"/>
+      <c r="Q6" s="23"/>
     </row>
     <row r="7" ht="13.85" spans="14:17">
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
-      <c r="Q7" s="25"/>
+      <c r="Q7" s="23"/>
     </row>
     <row r="8" ht="13.85" spans="14:17">
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
-      <c r="Q8" s="25"/>
+      <c r="Q8" s="23"/>
     </row>
     <row r="9" ht="13.85" spans="14:17">
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
-      <c r="Q9" s="25"/>
+      <c r="Q9" s="23"/>
     </row>
     <row r="10" ht="13.85" spans="14:17">
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="41"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="36"/>
     </row>
     <row r="11" ht="127" customHeight="1" spans="14:17">
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
-      <c r="Q11" s="25"/>
+      <c r="Q11" s="23"/>
     </row>
     <row r="12" ht="127" customHeight="1" spans="14:17">
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
-      <c r="Q12" s="25"/>
+      <c r="Q12" s="23"/>
     </row>
     <row r="13" ht="161" customHeight="1" spans="14:17">
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
-      <c r="Q13" s="25"/>
+      <c r="Q13" s="23"/>
     </row>
     <row r="14" ht="227" customHeight="1" spans="14:17">
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-      <c r="Q14" s="25"/>
+      <c r="Q14" s="23"/>
     </row>
     <row r="15" ht="227" customHeight="1" spans="14:17">
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
-      <c r="Q15" s="25"/>
+      <c r="Q15" s="23"/>
     </row>
     <row r="16" ht="191" customHeight="1" spans="14:17">
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
-      <c r="Q16" s="25"/>
+      <c r="Q16" s="23"/>
     </row>
     <row r="17" ht="167" customHeight="1" spans="14:17">
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
-      <c r="Q17" s="25"/>
+      <c r="Q17" s="23"/>
     </row>
     <row r="18" ht="192" customHeight="1" spans="14:17">
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="42"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="37"/>
     </row>
     <row r="19" ht="120" customHeight="1" spans="14:17">
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
-      <c r="Q19" s="25"/>
+      <c r="Q19" s="23"/>
     </row>
     <row r="20" ht="13.85" spans="14:17">
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
-      <c r="Q20" s="25"/>
+      <c r="Q20" s="23"/>
     </row>
     <row r="21" ht="13.85" spans="14:17">
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
-      <c r="Q21" s="25"/>
+      <c r="Q21" s="23"/>
     </row>
     <row r="22" ht="13.85" spans="14:17">
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
-      <c r="Q22" s="25"/>
+      <c r="Q22" s="23"/>
     </row>
     <row r="23" ht="13.85" spans="14:17">
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
-      <c r="Q23" s="25"/>
+      <c r="Q23" s="23"/>
     </row>
     <row r="24" ht="131" customHeight="1" spans="14:17">
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
-      <c r="Q24" s="25"/>
+      <c r="Q24" s="23"/>
     </row>
     <row r="25" ht="25" customHeight="1" spans="14:17">
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
-      <c r="Q25" s="25"/>
+      <c r="Q25" s="23"/>
     </row>
     <row r="26" ht="25" customHeight="1" spans="14:17">
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
-      <c r="Q26" s="25"/>
+      <c r="Q26" s="23"/>
     </row>
     <row r="27" ht="25" customHeight="1" spans="14:17">
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
-      <c r="Q27" s="25"/>
+      <c r="Q27" s="23"/>
     </row>
     <row r="28" ht="25" customHeight="1" spans="14:17">
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
-      <c r="Q28" s="25"/>
+      <c r="Q28" s="23"/>
     </row>
     <row r="29" ht="25" customHeight="1" spans="14:17">
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
-      <c r="Q29" s="25"/>
+      <c r="Q29" s="23"/>
     </row>
     <row r="30" ht="25" customHeight="1" spans="14:17">
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
-      <c r="Q30" s="25"/>
+      <c r="Q30" s="23"/>
     </row>
     <row r="31" ht="25" customHeight="1" spans="14:17">
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
-      <c r="Q31" s="25"/>
+      <c r="Q31" s="23"/>
     </row>
     <row r="32" ht="25" customHeight="1" spans="14:17">
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
-      <c r="Q32" s="25"/>
+      <c r="Q32" s="23"/>
     </row>
     <row r="33" ht="91" customHeight="1" spans="14:17">
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
-      <c r="Q33" s="25"/>
+      <c r="Q33" s="23"/>
     </row>
     <row r="34" ht="13.85" spans="14:17">
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
-      <c r="Q34" s="25"/>
+      <c r="Q34" s="23"/>
     </row>
     <row r="35" ht="13.85" spans="14:17">
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
-      <c r="Q35" s="25"/>
+      <c r="Q35" s="23"/>
     </row>
     <row r="36" ht="13.85" spans="14:17">
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
-      <c r="Q36" s="25"/>
+      <c r="Q36" s="23"/>
     </row>
     <row r="37" ht="13.85" spans="14:17">
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
-      <c r="Q37" s="25"/>
+      <c r="Q37" s="23"/>
     </row>
     <row r="38" ht="206" customHeight="1" spans="14:17">
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
-      <c r="Q38" s="25"/>
+      <c r="Q38" s="23"/>
     </row>
     <row r="39" ht="206" customHeight="1" spans="14:17">
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
-      <c r="Q39" s="25"/>
+      <c r="Q39" s="23"/>
     </row>
     <row r="40" ht="96" customHeight="1" spans="14:17">
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
-      <c r="Q40" s="25"/>
+      <c r="Q40" s="23"/>
     </row>
     <row r="41" ht="13.85" spans="14:17">
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
-      <c r="Q41" s="25"/>
+      <c r="Q41" s="23"/>
     </row>
     <row r="42" ht="13.85" spans="14:17">
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
-      <c r="Q42" s="25"/>
+      <c r="Q42" s="23"/>
     </row>
     <row r="43" ht="13.85" spans="14:17">
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
-      <c r="Q43" s="25"/>
+      <c r="Q43" s="23"/>
     </row>
     <row r="44" ht="13.85" spans="14:17">
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
-      <c r="Q44" s="25"/>
+      <c r="Q44" s="23"/>
     </row>
     <row r="45" ht="13.85" spans="14:17">
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
-      <c r="Q45" s="25"/>
+      <c r="Q45" s="23"/>
     </row>
     <row r="46" ht="97" customHeight="1" spans="14:17">
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
-      <c r="Q46" s="25"/>
+      <c r="Q46" s="23"/>
     </row>
     <row r="47" ht="13.85" spans="14:17">
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
-      <c r="Q47" s="25"/>
+      <c r="Q47" s="23"/>
     </row>
     <row r="48" ht="13.85" spans="14:17">
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
-      <c r="Q48" s="25"/>
+      <c r="Q48" s="23"/>
     </row>
     <row r="49" ht="13.85" spans="14:17">
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
-      <c r="Q49" s="25"/>
+      <c r="Q49" s="23"/>
     </row>
     <row r="50" ht="13.85" spans="14:17">
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
-      <c r="Q50" s="25"/>
+      <c r="Q50" s="23"/>
     </row>
     <row r="51" ht="13.85" spans="14:17">
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
-      <c r="Q51" s="25"/>
+      <c r="Q51" s="23"/>
     </row>
     <row r="52" ht="13.85" spans="14:17">
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
-      <c r="Q52" s="25"/>
+      <c r="Q52" s="23"/>
     </row>
     <row r="53" ht="13.85" spans="14:17">
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
-      <c r="Q53" s="25"/>
+      <c r="Q53" s="23"/>
     </row>
     <row r="54" ht="13.85" spans="14:17">
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
-      <c r="Q54" s="25"/>
+      <c r="Q54" s="23"/>
     </row>
     <row r="55" ht="13.85" spans="14:17">
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
-      <c r="Q55" s="25"/>
+      <c r="Q55" s="23"/>
     </row>
     <row r="56" ht="13.85" spans="14:17">
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
-      <c r="Q56" s="25"/>
+      <c r="Q56" s="23"/>
     </row>
     <row r="57" ht="13.85" spans="14:17">
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
-      <c r="Q57" s="25"/>
+      <c r="Q57" s="23"/>
     </row>
     <row r="58" ht="13.85" spans="14:17">
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
-      <c r="Q58" s="25"/>
+      <c r="Q58" s="23"/>
     </row>
     <row r="59" ht="360" customHeight="1" spans="14:17">
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
-      <c r="Q59" s="25"/>
+      <c r="Q59" s="23"/>
     </row>
     <row r="60" ht="13.85" spans="14:17">
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
-      <c r="Q60" s="25"/>
+      <c r="Q60" s="23"/>
     </row>
     <row r="61" ht="13.85" spans="14:17">
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
-      <c r="Q61" s="25"/>
+      <c r="Q61" s="23"/>
     </row>
     <row r="62" ht="13.85" spans="14:17">
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
-      <c r="Q62" s="25"/>
+      <c r="Q62" s="23"/>
     </row>
     <row r="63" ht="13.85" spans="14:17">
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
-      <c r="Q63" s="25"/>
+      <c r="Q63" s="23"/>
     </row>
     <row r="64" ht="13.85" spans="14:17">
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
-      <c r="Q64" s="25"/>
+      <c r="Q64" s="23"/>
     </row>
     <row r="65" ht="13.85" spans="14:17">
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
-      <c r="Q65" s="25"/>
+      <c r="Q65" s="23"/>
     </row>
     <row r="66" ht="14.6" spans="14:17">
-      <c r="N66" s="33"/>
-      <c r="O66" s="33"/>
-      <c r="P66" s="33"/>
-      <c r="Q66" s="42"/>
+      <c r="N66" s="28"/>
+      <c r="O66" s="28"/>
+      <c r="P66" s="28"/>
+      <c r="Q66" s="37"/>
     </row>
     <row r="67" ht="13.5"/>
   </sheetData>
@@ -12861,10 +12846,10 @@
   </sheetPr>
   <dimension ref="A1:V177"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -12917,16 +12902,16 @@
       <c r="H1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="24"/>
+      <c r="I1" s="22"/>
       <c r="K1" s="14"/>
       <c r="L1" s="14"/>
       <c r="M1" s="14"/>
-      <c r="N1" s="24"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
+      <c r="N1" s="22"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
       <c r="S1" s="2"/>
       <c r="U1" s="2"/>
-      <c r="V1" s="28"/>
+      <c r="V1" s="21"/>
     </row>
     <row r="2" ht="101" customHeight="1" spans="1:22">
       <c r="A2" s="16" t="s">
@@ -12944,17 +12929,17 @@
       <c r="E2" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="25"/>
-      <c r="Q2" s="29"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="23"/>
+      <c r="Q2" s="25"/>
       <c r="V2" s="2"/>
     </row>
     <row r="3" ht="121" customHeight="1" spans="1:22">
@@ -12970,18 +12955,18 @@
       <c r="D3" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="M3" s="25"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="M3" s="23"/>
       <c r="V3" s="2"/>
     </row>
     <row r="4" ht="103" customHeight="1" spans="2:22">
@@ -12994,19 +12979,19 @@
       <c r="D4" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="V4" s="30"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="V4" s="21"/>
     </row>
     <row r="5" ht="115" customHeight="1" spans="2:22">
       <c r="B5" s="9" t="s">
@@ -13021,14 +13006,14 @@
       <c r="E5" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="Q5" s="29"/>
-      <c r="V5" s="28"/>
+      <c r="Q5" s="25"/>
+      <c r="V5" s="21"/>
     </row>
     <row r="6" ht="82" customHeight="1"/>
     <row r="7" ht="94" customHeight="1"/>
@@ -13039,13 +13024,13 @@
       <c r="V9" s="2"/>
     </row>
     <row r="10" ht="241" customHeight="1" spans="22:22">
-      <c r="V10" s="23"/>
+      <c r="V10" s="21"/>
     </row>
     <row r="11" ht="309" customHeight="1" spans="22:22">
-      <c r="V11" s="31"/>
+      <c r="V11" s="26"/>
     </row>
     <row r="12" ht="309" customHeight="1" spans="22:22">
-      <c r="V12" s="32"/>
+      <c r="V12" s="27"/>
     </row>
     <row r="13" ht="317" customHeight="1" spans="22:22">
       <c r="V13" s="2"/>
@@ -13060,7 +13045,7 @@
       <c r="V16" s="2"/>
     </row>
     <row r="17" ht="228" customHeight="1" spans="22:22">
-      <c r="V17" s="33"/>
+      <c r="V17" s="28"/>
     </row>
     <row r="18" ht="241" customHeight="1" spans="22:22">
       <c r="V18" s="2"/>
@@ -13531,13 +13516,13 @@
       <c r="V173" s="2"/>
     </row>
     <row r="174" ht="219" customHeight="1" spans="22:22">
-      <c r="V174" s="34"/>
+      <c r="V174" s="29"/>
     </row>
     <row r="175" ht="363" customHeight="1" spans="22:22">
-      <c r="V175" s="35"/>
+      <c r="V175" s="30"/>
     </row>
     <row r="176" ht="409.5" customHeight="1" spans="22:22">
-      <c r="V176" s="35"/>
+      <c r="V176" s="30"/>
     </row>
     <row r="177" ht="13.5"/>
   </sheetData>
